--- a/Compiler/src/res/MatrizLexico.xlsx
+++ b/Compiler/src/res/MatrizLexico.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8010" tabRatio="500"/>
+    <workbookView windowWidth="21505" windowHeight="8972" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>NADA</t>
   </si>
@@ -144,16 +144,22 @@
   <si>
     <t>:</t>
   </si>
+  <si>
+    <t>[1-7]</t>
+  </si>
+  <si>
+    <t>[8-9]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -205,14 +211,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -220,9 +218,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,11 +256,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -249,29 +277,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +298,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,18 +312,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -341,69 +338,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -420,11 +360,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="46">
@@ -478,6 +484,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -490,7 +514,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,31 +634,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,85 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,74 +694,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -705,6 +711,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,6 +754,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -734,50 +779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,183 +798,188 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,6 +1023,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1429,22 +1436,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BO207"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BB42" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="BM68" sqref="BM68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14173228346457" defaultRowHeight="12.65"/>
   <cols>
-    <col min="1" max="1021" width="11.5714285714286"/>
+    <col min="1" max="1021" width="11.5748031496063"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:65">
+    <row r="1" ht="13.45" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,11 +1627,35 @@
         <v>42</v>
       </c>
       <c r="BG1" s="14"/>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BM1" s="14"/>
+      <c r="BH1" s="14">
+        <v>0</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:65">
+    <row r="2" ht="13.45" spans="1:65">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1804,7 +1835,7 @@
       <c r="BI2" s="8"/>
       <c r="BM2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:65">
+    <row r="3" ht="13.45" spans="1:65">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1984,7 +2015,7 @@
       <c r="BI3" s="8"/>
       <c r="BM3" s="8"/>
     </row>
-    <row r="4" ht="14.25" spans="1:65">
+    <row r="4" ht="13.45" spans="1:65">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2164,7 +2195,7 @@
       <c r="BI4" s="8"/>
       <c r="BM4" s="8"/>
     </row>
-    <row r="5" ht="14.25" spans="1:65">
+    <row r="5" ht="13.45" spans="1:65">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2344,7 +2375,7 @@
       <c r="BI5" s="8"/>
       <c r="BM5" s="8"/>
     </row>
-    <row r="6" ht="14.25" spans="1:65">
+    <row r="6" ht="13.45" spans="1:65">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2524,7 +2555,7 @@
       <c r="BI6" s="8"/>
       <c r="BM6" s="8"/>
     </row>
-    <row r="7" ht="14.25" spans="1:65">
+    <row r="7" ht="13.45" spans="1:65">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2704,7 +2735,7 @@
       <c r="BI7" s="8"/>
       <c r="BM7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:65">
+    <row r="8" ht="13.45" spans="1:65">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2884,7 +2915,7 @@
       <c r="BI8" s="8"/>
       <c r="BM8" s="8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:65">
+    <row r="9" ht="13.45" spans="1:65">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3064,7 +3095,7 @@
       <c r="BI9" s="8"/>
       <c r="BM9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:65">
+    <row r="10" ht="13.45" spans="1:65">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3244,7 +3275,7 @@
       <c r="BI10" s="8"/>
       <c r="BM10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:65">
+    <row r="11" ht="13.45" spans="1:65">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3424,7 +3455,7 @@
       <c r="BI11" s="8"/>
       <c r="BM11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:65">
+    <row r="12" ht="13.45" spans="1:65">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3604,7 +3635,7 @@
       <c r="BI12" s="8"/>
       <c r="BM12" s="8"/>
     </row>
-    <row r="13" ht="14.25" spans="1:65">
+    <row r="13" ht="13.45" spans="1:65">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3784,7 +3815,7 @@
       <c r="BI13" s="8"/>
       <c r="BM13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:65">
+    <row r="14" ht="13.45" spans="1:65">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3964,7 +3995,7 @@
       <c r="BI14" s="8"/>
       <c r="BM14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:65">
+    <row r="15" ht="13.45" spans="1:65">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -4144,7 +4175,7 @@
       <c r="BI15" s="8"/>
       <c r="BM15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:65">
+    <row r="16" ht="13.45" spans="1:65">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4324,7 +4355,7 @@
       <c r="BI16" s="8"/>
       <c r="BM16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:65">
+    <row r="17" ht="13.45" spans="1:65">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -4504,7 +4535,7 @@
       <c r="BI17" s="8"/>
       <c r="BM17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:65">
+    <row r="18" ht="13.45" spans="1:65">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -4684,7 +4715,7 @@
       <c r="BI18" s="8"/>
       <c r="BM18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:65">
+    <row r="19" ht="13.45" spans="1:65">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4864,7 +4895,7 @@
       <c r="BI19" s="8"/>
       <c r="BM19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:65">
+    <row r="20" ht="13.45" spans="1:65">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -5044,7 +5075,7 @@
       <c r="BI20" s="8"/>
       <c r="BM20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:65">
+    <row r="21" ht="13.45" spans="1:65">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -5224,7 +5255,7 @@
       <c r="BI21" s="8"/>
       <c r="BM21" s="8"/>
     </row>
-    <row r="22" ht="14.25" spans="1:65">
+    <row r="22" ht="13.45" spans="1:65">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -5404,7 +5435,7 @@
       <c r="BI22" s="8"/>
       <c r="BM22" s="8"/>
     </row>
-    <row r="23" ht="14.25" spans="1:65">
+    <row r="23" ht="13.45" spans="1:65">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -5584,7 +5615,7 @@
       <c r="BI23" s="8"/>
       <c r="BM23" s="8"/>
     </row>
-    <row r="24" ht="14.25" spans="1:65">
+    <row r="24" ht="13.45" spans="1:65">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -5764,7 +5795,7 @@
       <c r="BI24" s="8"/>
       <c r="BM24" s="8"/>
     </row>
-    <row r="25" ht="14.25" spans="1:65">
+    <row r="25" ht="13.45" spans="1:65">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -5944,7 +5975,7 @@
       <c r="BI25" s="8"/>
       <c r="BM25" s="8"/>
     </row>
-    <row r="26" ht="14.25" spans="1:65">
+    <row r="26" ht="13.45" spans="1:65">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -6124,7 +6155,7 @@
       <c r="BI26" s="8"/>
       <c r="BM26" s="8"/>
     </row>
-    <row r="27" ht="14.25" spans="1:65">
+    <row r="27" ht="13.45" spans="1:65">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -6304,7 +6335,7 @@
       <c r="BI27" s="8"/>
       <c r="BM27" s="8"/>
     </row>
-    <row r="28" ht="14.25" spans="1:65">
+    <row r="28" ht="13.45" spans="1:65">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -6484,7 +6515,7 @@
       <c r="BI28" s="8"/>
       <c r="BM28" s="8"/>
     </row>
-    <row r="29" ht="14.25" spans="1:65">
+    <row r="29" ht="13.45" spans="1:65">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -6664,7 +6695,7 @@
       <c r="BI29" s="8"/>
       <c r="BM29" s="8"/>
     </row>
-    <row r="30" ht="14.25" spans="1:65">
+    <row r="30" ht="13.45" spans="1:65">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -6844,7 +6875,7 @@
       <c r="BI30" s="8"/>
       <c r="BM30" s="8"/>
     </row>
-    <row r="31" ht="14.25" spans="1:65">
+    <row r="31" ht="13.45" spans="1:65">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -7024,7 +7055,7 @@
       <c r="BI31" s="8"/>
       <c r="BM31" s="8"/>
     </row>
-    <row r="32" ht="14.25" spans="1:65">
+    <row r="32" ht="13.45" spans="1:65">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -7204,7 +7235,7 @@
       <c r="BI32" s="8"/>
       <c r="BM32" s="8"/>
     </row>
-    <row r="33" ht="14.25" spans="1:65">
+    <row r="33" ht="13.45" spans="1:65">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -7384,7 +7415,7 @@
       <c r="BI33" s="8"/>
       <c r="BM33" s="8"/>
     </row>
-    <row r="34" ht="14.25" spans="1:65">
+    <row r="34" ht="13.45" spans="1:65">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -7564,7 +7595,7 @@
       <c r="BI34" s="8"/>
       <c r="BM34" s="8"/>
     </row>
-    <row r="35" ht="14.25" spans="1:65">
+    <row r="35" ht="13.45" spans="1:65">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -7744,7 +7775,7 @@
       <c r="BI35" s="8"/>
       <c r="BM35" s="8"/>
     </row>
-    <row r="36" ht="14.25" spans="1:65">
+    <row r="36" ht="13.45" spans="1:65">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -7924,7 +7955,7 @@
       <c r="BI36" s="8"/>
       <c r="BM36" s="8"/>
     </row>
-    <row r="37" ht="14.25" spans="1:65">
+    <row r="37" ht="13.45" spans="1:65">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -8104,7 +8135,7 @@
       <c r="BI37" s="8"/>
       <c r="BM37" s="8"/>
     </row>
-    <row r="38" ht="14.25" spans="1:65">
+    <row r="38" ht="13.45" spans="1:65">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -8284,7 +8315,7 @@
       <c r="BI38" s="8"/>
       <c r="BM38" s="8"/>
     </row>
-    <row r="39" ht="14.25" spans="1:65">
+    <row r="39" ht="13.45" spans="1:65">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -8464,7 +8495,7 @@
       <c r="BI39" s="8"/>
       <c r="BM39" s="8"/>
     </row>
-    <row r="40" ht="14.25" spans="1:65">
+    <row r="40" ht="13.45" spans="1:65">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -8644,7 +8675,7 @@
       <c r="BI40" s="8"/>
       <c r="BM40" s="8"/>
     </row>
-    <row r="41" ht="14.25" spans="1:65">
+    <row r="41" ht="13.45" spans="1:65">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -8824,7 +8855,7 @@
       <c r="BI41" s="8"/>
       <c r="BM41" s="8"/>
     </row>
-    <row r="42" ht="14.25" spans="1:65">
+    <row r="42" ht="13.45" spans="1:65">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -9004,7 +9035,7 @@
       <c r="BI42" s="8"/>
       <c r="BM42" s="8"/>
     </row>
-    <row r="43" ht="14.25" spans="1:65">
+    <row r="43" ht="13.45" spans="1:65">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -9184,7 +9215,7 @@
       <c r="BI43" s="8"/>
       <c r="BM43" s="8"/>
     </row>
-    <row r="44" ht="14.25" spans="1:65">
+    <row r="44" ht="13.45" spans="1:65">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -9364,7 +9395,7 @@
       <c r="BI44" s="8"/>
       <c r="BM44" s="8"/>
     </row>
-    <row r="45" ht="14.25" spans="1:65">
+    <row r="45" ht="13.45" spans="1:65">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -9544,7 +9575,7 @@
       <c r="BI45" s="8"/>
       <c r="BM45" s="8"/>
     </row>
-    <row r="46" ht="14.25" spans="1:65">
+    <row r="46" ht="13.45" spans="1:65">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -9724,7 +9755,7 @@
       <c r="BI46" s="8"/>
       <c r="BM46" s="8"/>
     </row>
-    <row r="47" ht="14.25" spans="1:65">
+    <row r="47" ht="13.45" spans="1:65">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -9904,7 +9935,7 @@
       <c r="BI47" s="8"/>
       <c r="BM47" s="8"/>
     </row>
-    <row r="48" ht="14.25" spans="1:65">
+    <row r="48" ht="13.45" spans="1:65">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -10084,7 +10115,7 @@
       <c r="BI48" s="8"/>
       <c r="BM48" s="8"/>
     </row>
-    <row r="49" ht="14.25" spans="1:65">
+    <row r="49" ht="13.45" spans="1:65">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -10264,7 +10295,7 @@
       <c r="BI49" s="8"/>
       <c r="BM49" s="8"/>
     </row>
-    <row r="50" ht="14.25" spans="1:65">
+    <row r="50" ht="13.45" spans="1:65">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -10444,7 +10475,7 @@
       <c r="BI50" s="8"/>
       <c r="BM50" s="8"/>
     </row>
-    <row r="51" ht="14.25" spans="1:65">
+    <row r="51" ht="13.45" spans="1:65">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -10624,7 +10655,7 @@
       <c r="BI51" s="8"/>
       <c r="BM51" s="8"/>
     </row>
-    <row r="52" ht="14.25" spans="1:65">
+    <row r="52" ht="13.45" spans="1:65">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -10804,7 +10835,7 @@
       <c r="BI52" s="8"/>
       <c r="BM52" s="8"/>
     </row>
-    <row r="53" ht="14.25" spans="1:65">
+    <row r="53" ht="13.45" spans="1:65">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -10984,7 +11015,7 @@
       <c r="BI53" s="8"/>
       <c r="BM53" s="8"/>
     </row>
-    <row r="54" ht="14.25" spans="1:65">
+    <row r="54" ht="13.45" spans="1:65">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -11164,7 +11195,7 @@
       <c r="BI54" s="8"/>
       <c r="BM54" s="8"/>
     </row>
-    <row r="55" ht="14.25" spans="1:65">
+    <row r="55" ht="13.45" spans="1:65">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -11344,7 +11375,7 @@
       <c r="BI55" s="8"/>
       <c r="BM55" s="8"/>
     </row>
-    <row r="56" ht="14.25" spans="1:65">
+    <row r="56" ht="13.45" spans="1:65">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -11524,7 +11555,7 @@
       <c r="BI56" s="8"/>
       <c r="BM56" s="8"/>
     </row>
-    <row r="57" ht="14.25" spans="1:65">
+    <row r="57" ht="13.45" spans="1:65">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -11700,11 +11731,13 @@
         <v>300</v>
       </c>
       <c r="BG57" s="8"/>
-      <c r="BH57" s="8"/>
+      <c r="BH57" s="8">
+        <v>56</v>
+      </c>
       <c r="BI57" s="8"/>
       <c r="BM57" s="8"/>
     </row>
-    <row r="58" ht="14.25" spans="1:65">
+    <row r="58" ht="13.45" spans="1:66">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -11883,8 +11916,11 @@
       <c r="BH58" s="8"/>
       <c r="BI58" s="8"/>
       <c r="BM58" s="8"/>
+      <c r="BN58">
+        <v>58</v>
+      </c>
     </row>
-    <row r="59" ht="14.25" spans="1:65">
+    <row r="59" ht="13.45" spans="1:65">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -12060,11 +12096,18 @@
         <v>300</v>
       </c>
       <c r="BG59" s="8"/>
-      <c r="BH59" s="8"/>
-      <c r="BI59" s="8"/>
+      <c r="BH59" s="8">
+        <v>57</v>
+      </c>
+      <c r="BI59" s="8">
+        <v>57</v>
+      </c>
+      <c r="BJ59">
+        <v>58</v>
+      </c>
       <c r="BM59" s="8"/>
     </row>
-    <row r="60" ht="14.25" spans="1:65">
+    <row r="60" ht="13.45" spans="1:65">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -12240,11 +12283,18 @@
         <v>300</v>
       </c>
       <c r="BG60" s="8"/>
-      <c r="BH60" s="8"/>
-      <c r="BI60" s="8"/>
+      <c r="BH60" s="8">
+        <v>59</v>
+      </c>
+      <c r="BI60" s="8">
+        <v>59</v>
+      </c>
+      <c r="BJ60">
+        <v>59</v>
+      </c>
       <c r="BM60" s="8"/>
     </row>
-    <row r="61" ht="14.25" spans="1:65">
+    <row r="61" ht="13.45" spans="1:65">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -12420,11 +12470,20 @@
         <v>300</v>
       </c>
       <c r="BG61" s="8"/>
-      <c r="BH61" s="8"/>
-      <c r="BI61" s="8"/>
-      <c r="BM61" s="8"/>
+      <c r="BH61" s="8">
+        <v>59</v>
+      </c>
+      <c r="BI61" s="8">
+        <v>59</v>
+      </c>
+      <c r="BJ61">
+        <v>59</v>
+      </c>
+      <c r="BM61" s="8">
+        <v>60</v>
+      </c>
     </row>
-    <row r="62" ht="14.25" spans="1:65">
+    <row r="62" ht="13.45" spans="1:65">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -12600,11 +12659,24 @@
         <v>300</v>
       </c>
       <c r="BG62" s="8"/>
-      <c r="BH62" s="8"/>
-      <c r="BI62" s="8"/>
+      <c r="BH62" s="8">
+        <v>62</v>
+      </c>
+      <c r="BI62" s="8">
+        <v>62</v>
+      </c>
+      <c r="BJ62">
+        <v>62</v>
+      </c>
+      <c r="BK62">
+        <v>61</v>
+      </c>
+      <c r="BL62">
+        <v>61</v>
+      </c>
       <c r="BM62" s="8"/>
     </row>
-    <row r="63" ht="14.25" spans="1:65">
+    <row r="63" ht="13.45" spans="1:65">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -12780,11 +12852,18 @@
         <v>300</v>
       </c>
       <c r="BG63" s="8"/>
-      <c r="BH63" s="8"/>
-      <c r="BI63" s="8"/>
+      <c r="BH63" s="8">
+        <v>62</v>
+      </c>
+      <c r="BI63" s="8">
+        <v>62</v>
+      </c>
+      <c r="BJ63">
+        <v>62</v>
+      </c>
       <c r="BM63" s="8"/>
     </row>
-    <row r="64" ht="14.25" spans="1:65">
+    <row r="64" ht="13.45" spans="1:68">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -12960,11 +13039,24 @@
         <v>300</v>
       </c>
       <c r="BG64" s="8"/>
-      <c r="BH64" s="8"/>
-      <c r="BI64" s="8"/>
+      <c r="BH64" s="8">
+        <v>62</v>
+      </c>
+      <c r="BI64" s="8">
+        <v>62</v>
+      </c>
+      <c r="BJ64">
+        <v>62</v>
+      </c>
+      <c r="BK64">
+        <v>63</v>
+      </c>
       <c r="BM64" s="8"/>
+      <c r="BP64" s="15">
+        <v>7.689e+87</v>
+      </c>
     </row>
-    <row r="65" ht="14.25" spans="1:65">
+    <row r="65" ht="13.45" spans="1:65">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -13140,11 +13232,13 @@
         <v>300</v>
       </c>
       <c r="BG65" s="8"/>
-      <c r="BH65" s="8"/>
+      <c r="BH65" s="8">
+        <v>64</v>
+      </c>
       <c r="BI65" s="8"/>
       <c r="BM65" s="8"/>
     </row>
-    <row r="66" ht="14.25" spans="1:65">
+    <row r="66" ht="13.45" spans="1:66">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -13320,11 +13414,21 @@
         <v>300</v>
       </c>
       <c r="BG66" s="8"/>
-      <c r="BH66" s="8"/>
-      <c r="BI66" s="8"/>
+      <c r="BH66" s="8">
+        <v>64</v>
+      </c>
+      <c r="BI66" s="8">
+        <v>64</v>
+      </c>
+      <c r="BJ66">
+        <v>65</v>
+      </c>
       <c r="BM66" s="8"/>
+      <c r="BN66">
+        <v>66</v>
+      </c>
     </row>
-    <row r="67" ht="14.25" spans="1:65">
+    <row r="67" ht="13.45" spans="1:65">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -13500,11 +13604,18 @@
         <v>300</v>
       </c>
       <c r="BG67" s="8"/>
-      <c r="BH67" s="8"/>
-      <c r="BI67" s="8"/>
+      <c r="BH67" s="8">
+        <v>65</v>
+      </c>
+      <c r="BI67" s="8">
+        <v>65</v>
+      </c>
+      <c r="BJ67">
+        <v>66</v>
+      </c>
       <c r="BM67" s="8"/>
     </row>
-    <row r="68" ht="14.25" spans="1:65">
+    <row r="68" ht="13.45" spans="1:65">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -13658,13 +13769,13 @@
       <c r="AY68" s="7">
         <v>300</v>
       </c>
-      <c r="AZ68" s="15">
+      <c r="AZ68" s="16">
         <v>68</v>
       </c>
-      <c r="BA68" s="15">
+      <c r="BA68" s="16">
         <v>67</v>
       </c>
-      <c r="BB68" s="15">
+      <c r="BB68" s="16">
         <v>67</v>
       </c>
       <c r="BC68" s="7">
@@ -13679,12 +13790,19 @@
       <c r="BF68" s="7">
         <v>300</v>
       </c>
-      <c r="BG68" s="16"/>
-      <c r="BH68" s="16"/>
-      <c r="BI68" s="16"/>
+      <c r="BG68" s="17"/>
+      <c r="BH68" s="17">
+        <v>66</v>
+      </c>
+      <c r="BI68" s="17">
+        <v>66</v>
+      </c>
+      <c r="BJ68">
+        <v>66</v>
+      </c>
       <c r="BM68" s="8"/>
     </row>
-    <row r="69" ht="14.25" spans="1:65">
+    <row r="69" ht="13.45" spans="1:65">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -13838,7 +13956,7 @@
       <c r="AY69" s="7">
         <v>300</v>
       </c>
-      <c r="AZ69" s="15">
+      <c r="AZ69" s="16">
         <v>68</v>
       </c>
       <c r="BA69" s="7">
@@ -13859,12 +13977,12 @@
       <c r="BF69" s="7">
         <v>300</v>
       </c>
-      <c r="BG69" s="16"/>
-      <c r="BH69" s="16"/>
-      <c r="BI69" s="16"/>
+      <c r="BG69" s="17"/>
+      <c r="BH69" s="17"/>
+      <c r="BI69" s="17"/>
       <c r="BM69" s="8"/>
     </row>
-    <row r="70" ht="14.25" spans="1:65">
+    <row r="70" ht="13.45" spans="1:65">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -14033,7 +14151,7 @@
       <c r="BD70" s="7">
         <v>300</v>
       </c>
-      <c r="BE70" s="17">
+      <c r="BE70" s="18">
         <v>-10</v>
       </c>
       <c r="BF70" s="7">
@@ -14044,7 +14162,7 @@
       <c r="BI70" s="8"/>
       <c r="BM70" s="8"/>
     </row>
-    <row r="71" ht="14.25" spans="1:67">
+    <row r="71" ht="13.45" spans="1:67">
       <c r="A71" s="2">
         <v>69</v>
       </c>
